--- a/src/main/resources/input/users.xlsx
+++ b/src/main/resources/input/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edgar Israel Cano\workspace\okysoft-projects\azure-ad-exam\src\main\resources\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F319711D-8FC4-4209-BC04-1FDF9A8C5CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CFB751-DCFD-4C76-B17B-90D5047F1D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2010" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,57 +25,1497 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="491">
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Edson</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t>312062891@derecho.unam.mx</t>
+  </si>
+  <si>
+    <t>Jorge Edson Martínez Rosas Landa</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Marcela</t>
+  </si>
+  <si>
+    <t>Zapata</t>
+  </si>
+  <si>
+    <t>Palomet</t>
+  </si>
+  <si>
+    <t>zapatapalomet@hotmail.com</t>
+  </si>
+  <si>
+    <t>Claudia Marcela Zapata Palomet</t>
+  </si>
+  <si>
+    <t>María</t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>Pilar</t>
+  </si>
+  <si>
+    <t>Carrizosa</t>
+  </si>
+  <si>
+    <t>Celis</t>
+  </si>
+  <si>
+    <t>lic.pilar.carrizosa@gmail.com</t>
+  </si>
+  <si>
+    <t>María del Pilar Carrizosa Celis</t>
+  </si>
+  <si>
+    <t>Víctor</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Monroy</t>
+  </si>
+  <si>
+    <t>Juárez</t>
+  </si>
+  <si>
+    <t>vmonroy@monroyabogados.com.mx</t>
+  </si>
+  <si>
+    <t>Víctor Manuel Monroy Juárez</t>
+  </si>
+  <si>
+    <t>Fernando</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Velasco</t>
+  </si>
+  <si>
+    <t>Molina</t>
+  </si>
+  <si>
+    <t>fmartinezdevelasco@mvrg.mx</t>
+  </si>
+  <si>
+    <t>Fernando Martínez de Velasco Molina</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Fernández</t>
+  </si>
+  <si>
+    <t>Chavira</t>
+  </si>
+  <si>
+    <t>efernandex81@gmail.com</t>
+  </si>
+  <si>
+    <t>Enrique Fernández Chavira</t>
+  </si>
+  <si>
+    <t>Erika</t>
+  </si>
+  <si>
+    <t>Jhoana</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>mediacion.maestria2022@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika Jhoana Castro López </t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>Bautista</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>hbautista567@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Bautista Roman </t>
+  </si>
+  <si>
+    <t>Noé</t>
+  </si>
+  <si>
+    <t>Jesús</t>
+  </si>
+  <si>
+    <t>Olmos</t>
+  </si>
+  <si>
+    <t>Castillo</t>
+  </si>
+  <si>
+    <t>grupojuridicoolmosyasociados@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noé de Jesús olmos castillo </t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Ortiz</t>
+  </si>
+  <si>
+    <t>monicaortort@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Ortega Ortiz </t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Isela</t>
+  </si>
+  <si>
+    <t>Noriega</t>
+  </si>
+  <si>
+    <t>Hernández</t>
+  </si>
+  <si>
+    <t>diannh_22@hotmail.com</t>
+  </si>
+  <si>
+    <t>Diana Isela Noriega Hernández</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Ruelas</t>
+  </si>
+  <si>
+    <t>Gómez</t>
+  </si>
+  <si>
+    <t>Lic.ruelas@outlook.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanie Ruelas Gómez </t>
+  </si>
+  <si>
+    <t>Dalia</t>
+  </si>
+  <si>
+    <t>Jannet</t>
+  </si>
+  <si>
+    <t>Tola</t>
+  </si>
+  <si>
+    <t>Guzmán</t>
+  </si>
+  <si>
+    <t>daly_guzman@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalia Jannet Tola Guzmán </t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silvia.ppmm@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvia Pérez Martínez </t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Cuenca</t>
+  </si>
+  <si>
+    <t>Montoya</t>
+  </si>
+  <si>
+    <t>lic.antonio.cuencam@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Cuenca Montoya </t>
+  </si>
+  <si>
+    <t>Germán</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>Salgado</t>
+  </si>
+  <si>
+    <t>Jaramillo</t>
+  </si>
+  <si>
+    <t>germangarciasalgado@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán García Salgado Jaramillo </t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Espinosa</t>
+  </si>
+  <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>donirving1977@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irving Omar Espinosa Aguilar </t>
+  </si>
+  <si>
+    <t>Jakeline</t>
+  </si>
+  <si>
+    <t>Peña</t>
+  </si>
+  <si>
+    <t>jmonroy@cjcconsultoria.com.mx</t>
+  </si>
+  <si>
+    <t>Jakeline Monroy Peña</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
+  </si>
+  <si>
+    <t>pablo.salazar1710@gmail.com</t>
+  </si>
+  <si>
+    <t>Pablo Salazar Sánchez</t>
+  </si>
+  <si>
+    <t>Gerardo</t>
+  </si>
+  <si>
+    <t>René</t>
+  </si>
+  <si>
+    <t>Estrada</t>
+  </si>
+  <si>
+    <t>gerardorene6609@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo René Gómez Estrada </t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Blum</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">victorblum09@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor Alberto Blum Medina </t>
+  </si>
+  <si>
+    <t>Rocio</t>
+  </si>
+  <si>
+    <t>Muñoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rectoria@iuaf.edu.mx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erika del Rocio Muñoz Salazar </t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Landero</t>
+  </si>
+  <si>
+    <t>Gutiérrez</t>
+  </si>
+  <si>
+    <t>jlandero@caesc.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Francisco Javier Landero Gutiérrez </t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>Howe</t>
+  </si>
+  <si>
+    <t>Marañón</t>
+  </si>
+  <si>
+    <t>raulhowe@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raúl Howe Marañón </t>
+  </si>
+  <si>
+    <t>Lira</t>
+  </si>
+  <si>
+    <t>slabogados1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Sánchez Lira </t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Zúñiga</t>
+  </si>
+  <si>
+    <t>navarro</t>
+  </si>
+  <si>
+    <t>Mzn_22@live.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Zúñiga navarro </t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>german@roth.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germán Enrique Muñoz Roth </t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Sergio</t>
+  </si>
+  <si>
+    <t>Velazquez</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>avelazquezgomez@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Sergio Velazquez Gomez </t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Deyanira</t>
+  </si>
+  <si>
+    <t>Olivares</t>
+  </si>
+  <si>
+    <t>saradeyanira_po@hotmail.com</t>
+  </si>
+  <si>
+    <t>Sara Deyanira Pérez Olivares</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Tripp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martineztripp@gmail.com </t>
+  </si>
+  <si>
+    <t>Carlos Francisco Martínez Tripp</t>
+  </si>
+  <si>
+    <t>Yessenia</t>
+  </si>
+  <si>
+    <t>Zuñiga</t>
+  </si>
+  <si>
+    <t>yessenia.salazar.z@gmail.com</t>
+  </si>
+  <si>
+    <t>Yessenia Salazar Zuñiga</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Vázquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.garcia@hermassc.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacqueline Guadalupe García Vázquez </t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>Díaz</t>
+  </si>
+  <si>
+    <t>franciscomeza_abog@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Francisco Meza López y Díaz</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Quintana</t>
+  </si>
+  <si>
+    <t>info.siseservicios@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha Patricia Gutiérrez Quintana </t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Alfaro</t>
+  </si>
+  <si>
+    <t>d.m.a.311091@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Martínez Alfaro </t>
+  </si>
+  <si>
+    <t>Rogelio</t>
+  </si>
+  <si>
+    <t>Bermúdez</t>
+  </si>
+  <si>
+    <t>rogelio@gabe.legal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Rogelio García Bermúdez </t>
+  </si>
+  <si>
+    <t>Dolores</t>
+  </si>
+  <si>
+    <t>Martina</t>
+  </si>
+  <si>
+    <t>Lafuente</t>
+  </si>
+  <si>
+    <t>Casillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lafuentecasillas@hotmail.com </t>
+  </si>
+  <si>
+    <t>Dolores Martina Lafuente Casillas</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Calderón</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>luiscalderonrivera@hotmail.com</t>
+  </si>
+  <si>
+    <t>Luis Javier Calderón Rivera</t>
+  </si>
+  <si>
+    <t>Maldonado</t>
+  </si>
+  <si>
+    <t>jestrada_ma@hotmail.com</t>
+  </si>
+  <si>
+    <t>José de Jesús Estrada Maldonado</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Ulises</t>
+  </si>
+  <si>
+    <t>Esparza</t>
+  </si>
+  <si>
+    <t>Rojas</t>
+  </si>
+  <si>
+    <t>ulises.esparza@microsip.net</t>
+  </si>
+  <si>
+    <t>Angel Ulises Esparza Rojas</t>
+  </si>
+  <si>
+    <t>Tapía</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>tapialic@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Tapía González </t>
+  </si>
+  <si>
+    <t>Belem</t>
+  </si>
+  <si>
+    <t>Minerva</t>
+  </si>
+  <si>
+    <t>Mora</t>
+  </si>
+  <si>
+    <t>belem.mora@asesorate.mx</t>
+  </si>
+  <si>
+    <t>Belem Minerva Mora Martínez</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>San</t>
+  </si>
+  <si>
+    <t>sanjuan_jr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Juan Roberto San Juan Vilchis</t>
+  </si>
+  <si>
+    <t>Balfré</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>balfremarcelom@gmail.com</t>
+  </si>
+  <si>
+    <t>Balfré Marcelo Morales Martinez</t>
+  </si>
+  <si>
+    <t>Delgado</t>
+  </si>
+  <si>
+    <t>Anguiano</t>
+  </si>
+  <si>
+    <t>lcrcrazy@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Alberto Delgado Anguiano </t>
+  </si>
+  <si>
+    <t>Augusto</t>
+  </si>
+  <si>
+    <t>Gonzalez</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>karlos_mk1@hotmail.com</t>
+  </si>
+  <si>
+    <t>Carlos Augusto Gonzalez Bravo</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Jaimes</t>
+  </si>
+  <si>
+    <t>Robledo</t>
+  </si>
+  <si>
+    <t>julio_jaimesr@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio Rodrigo Jaimes Robledo </t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Lucía</t>
+  </si>
+  <si>
+    <t>Alvarez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anylucy.gomez18@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Lucía Gómez Alvarez </t>
+  </si>
+  <si>
+    <t>Gamboa</t>
+  </si>
+  <si>
+    <t>Pinto</t>
+  </si>
+  <si>
+    <t>rgamboa@outlook.com</t>
+  </si>
+  <si>
+    <t>Roberto Gamboa Pinto</t>
+  </si>
+  <si>
+    <t>Chacón</t>
+  </si>
+  <si>
+    <t>lic.robertosanchez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Roberto Sánchez Chacón</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Soulé</t>
+  </si>
+  <si>
+    <t>Egea</t>
+  </si>
+  <si>
+    <t>nomvoluntaria@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriela soulé Egea</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Cortés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandysmc52@hotmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Meza Cortés </t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>jorgehernandez@mp640cdmx.com</t>
+  </si>
+  <si>
+    <t>Jorge Eduardo Hernandez Cordero</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Castelán</t>
+  </si>
+  <si>
+    <t>jorge.aguilar@cje-abogados.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Jorge Aguilar Castelán </t>
+  </si>
+  <si>
+    <t>Estefania</t>
+  </si>
+  <si>
+    <t>Marisela</t>
+  </si>
+  <si>
+    <t>Piña</t>
+  </si>
+  <si>
+    <t>Pastrana</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cachichurris2003@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefania Marisela Piña Pastrana </t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>luzma.toluca@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Luz María Carrasco Hernández</t>
+  </si>
+  <si>
+    <t>Armando</t>
+  </si>
+  <si>
+    <t>Eliazir</t>
+  </si>
+  <si>
+    <t>Barreto</t>
+  </si>
+  <si>
+    <t>Aldana</t>
+  </si>
+  <si>
+    <t>eliaziraldana@gmail.com</t>
+  </si>
+  <si>
+    <t>Armando Eliazir Barreto Aldana</t>
+  </si>
+  <si>
+    <t>Diez</t>
+  </si>
+  <si>
+    <t>Cano</t>
+  </si>
+  <si>
+    <t>ferndc010@gmail.com</t>
+  </si>
+  <si>
+    <t>Fernando Carlos Diez Cano</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Tapia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dtapia77@hotmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Tapia Alvarez </t>
+  </si>
+  <si>
+    <t>Priscila</t>
+  </si>
+  <si>
+    <t>Marín</t>
+  </si>
+  <si>
+    <t>Chávez</t>
+  </si>
+  <si>
+    <t>mediadorprivado589cdmx@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priscila Marín Chávez </t>
+  </si>
+  <si>
+    <t>Paulina</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>castillopaulina@hotmail.com</t>
+  </si>
+  <si>
+    <t>Paulina Castillo Lara</t>
+  </si>
+  <si>
+    <t>jco.martinez_esparza@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">René Antonio Martínez Esparza </t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>Camacho</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> barbara_not51@hotmail.com</t>
+  </si>
+  <si>
+    <t>Barbara Garcia Camacho</t>
+  </si>
   <si>
     <t>Edgar</t>
   </si>
   <si>
-    <t>Cano</t>
-  </si>
-  <si>
-    <t>Desarrollador</t>
-  </si>
-  <si>
-    <t>Bachillerato</t>
-  </si>
-  <si>
-    <t>Soltero</t>
-  </si>
-  <si>
-    <t>Ecatepec de Morelos</t>
-  </si>
-  <si>
-    <t>Ingeniero</t>
-  </si>
-  <si>
-    <t>Desarrolladora</t>
-  </si>
-  <si>
-    <t>Yesenia</t>
-  </si>
-  <si>
-    <t>Larios</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Tecamac</t>
+    <t>Canchola</t>
+  </si>
+  <si>
+    <t>canchola30r@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Ortega Canchola </t>
+  </si>
+  <si>
+    <t>Navarone</t>
+  </si>
+  <si>
+    <t>Peralta</t>
+  </si>
+  <si>
+    <t>Rodríguez</t>
+  </si>
+  <si>
+    <t>abogadodavidnperalta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Navarone Peralta Rodríguez </t>
+  </si>
+  <si>
+    <t>Yadira</t>
+  </si>
+  <si>
+    <t>Marlem</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>rojas_yadira@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yadira Marlem Rojas Vega </t>
+  </si>
+  <si>
+    <t>Mureddu</t>
+  </si>
+  <si>
+    <t>Gilabert</t>
+  </si>
+  <si>
+    <t>mmureddug@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariana Mureddu Gilabert</t>
+  </si>
+  <si>
+    <t>saddam</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Office.lawyer.jackson@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique saddam jackson aguilar </t>
+  </si>
+  <si>
+    <t>Héctor</t>
+  </si>
+  <si>
+    <t>Pichardo</t>
+  </si>
+  <si>
+    <t>Aranza</t>
+  </si>
+  <si>
+    <t>hectorpichardoaranza@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héctor Pichardo Aranza </t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Andaracua</t>
+  </si>
+  <si>
+    <t>iusnap2781@hotmail.com</t>
+  </si>
+  <si>
+    <t>Nancy Andaracua Pérez</t>
+  </si>
+  <si>
+    <t>Jmeza@mram.com.mx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Jesús Meza Roman </t>
+  </si>
+  <si>
+    <t>Rubén</t>
+  </si>
+  <si>
+    <t>Quero</t>
+  </si>
+  <si>
+    <t>Montaño</t>
+  </si>
+  <si>
+    <t>bjrubenq@gmail.com</t>
+  </si>
+  <si>
+    <t>Rubén Quero Montaño.</t>
+  </si>
+  <si>
+    <t>Armendáriz</t>
+  </si>
+  <si>
+    <t>Munguía</t>
+  </si>
+  <si>
+    <t>luisarmandoarmendarizmunguia@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Armando Armendáriz Munguía </t>
+  </si>
+  <si>
+    <t>Alfonso</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Orozco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lic.alfonsonino@live.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso Roman  Niño Orozco </t>
+  </si>
+  <si>
+    <t>Renato</t>
+  </si>
+  <si>
+    <t>Alcántara</t>
+  </si>
+  <si>
+    <t>renatomag1@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato Manuel Alcántara González </t>
+  </si>
+  <si>
+    <t>Félix</t>
+  </si>
+  <si>
+    <t>Magaña</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>felix.magana@mpayabogados.com</t>
+  </si>
+  <si>
+    <t>Félix Antonio Magaña Gil</t>
+  </si>
+  <si>
+    <t>Rosario</t>
+  </si>
+  <si>
+    <t>Islas</t>
+  </si>
+  <si>
+    <t>rosario.hislas@gmail.com</t>
+  </si>
+  <si>
+    <t>Rosario Hernández Islas</t>
+  </si>
+  <si>
+    <t>Ricardo</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Quiroz</t>
+  </si>
+  <si>
+    <t>ricardo_rq06@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Antonio Rico Quiroz </t>
+  </si>
+  <si>
+    <t>jaime</t>
+  </si>
+  <si>
+    <t>jesús</t>
+  </si>
+  <si>
+    <t>sánchez</t>
+  </si>
+  <si>
+    <t>montemayor</t>
+  </si>
+  <si>
+    <t>montemayorjaime@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaime jesús sánchez montemayor </t>
+  </si>
+  <si>
+    <t>Arce</t>
+  </si>
+  <si>
+    <t>Arcesanchezmx@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Bautista Arce Sánchez </t>
+  </si>
+  <si>
+    <t>Santiago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">josehernandezsantiago23@gmail.com </t>
+  </si>
+  <si>
+    <t>José Hernández Santiago.</t>
+  </si>
+  <si>
+    <t>Blanca</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Lazcano</t>
+  </si>
+  <si>
+    <t>blancalelaz@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Blanca Leticia lazcano esparza</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>Levi</t>
+  </si>
+  <si>
+    <t>Obregón</t>
+  </si>
+  <si>
+    <t>Salinas</t>
+  </si>
+  <si>
+    <t>gonzaloabogado@outlook.com</t>
+  </si>
+  <si>
+    <t>Gonzalo Levi Obregón Salinas</t>
+  </si>
+  <si>
+    <t>Josue</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contacto@abogadosecatepec.com </t>
+  </si>
+  <si>
+    <t>David Josue Moreno Cano.</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Viquez</t>
+  </si>
+  <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>surent.gv@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloria Viquez Vargas</t>
+  </si>
+  <si>
+    <t>Oswaldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angelorf@gutierrezmateos.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Oswaldo Rodríguez Fernández </t>
+  </si>
+  <si>
+    <t>Guadarrama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gabygblss@gmail.com </t>
+  </si>
+  <si>
+    <t>Gabriela Gutiérrez Guadarrama</t>
+  </si>
+  <si>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>Ángel</t>
+  </si>
+  <si>
+    <t>Arteaga</t>
+  </si>
+  <si>
+    <t>Sandoval</t>
+  </si>
+  <si>
+    <t>miguel.arteaga@anahuac.mx</t>
+  </si>
+  <si>
+    <t>Miguel Ángel Arteaga Sandoval</t>
+  </si>
+  <si>
+    <t>Yaira</t>
+  </si>
+  <si>
+    <t>Ramírez</t>
+  </si>
+  <si>
+    <t>Burillo</t>
+  </si>
+  <si>
+    <t>yairabu@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Yaira María Ramírez Burillo</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Iván</t>
+  </si>
+  <si>
+    <t>Barrera</t>
+  </si>
+  <si>
+    <t>Pineda</t>
+  </si>
+  <si>
+    <t>ivan.lex80@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Iván Barrera Pineda </t>
+  </si>
+  <si>
+    <t>Joaquín</t>
+  </si>
+  <si>
+    <t>Lugo</t>
+  </si>
+  <si>
+    <t>Baquero</t>
+  </si>
+  <si>
+    <t>jrlb@infinitummail.com</t>
+  </si>
+  <si>
+    <t>Joaquín Rodríguez Lugo Baquero</t>
+  </si>
+  <si>
+    <t>Azucena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">azucenabelem_gonzalez@hotmail.com </t>
+  </si>
+  <si>
+    <t>Azucena Belem Gonzalez  Estrada</t>
+  </si>
+  <si>
+    <t>Fuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diox84@hotmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héctor Fuentes Martínez </t>
+  </si>
+  <si>
+    <t>Arredondo</t>
+  </si>
+  <si>
+    <t>manuel307_24@hotmail.com</t>
+  </si>
+  <si>
+    <t>Manuel López Arredondo</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Garzón</t>
+  </si>
+  <si>
+    <t>notaria56@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Eric Garzón Zúñiga </t>
+  </si>
+  <si>
+    <t>Karla</t>
+  </si>
+  <si>
+    <t>Franco</t>
+  </si>
+  <si>
+    <t>lickarlafranco@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Franco Ramírez </t>
+  </si>
+  <si>
+    <t>Senado</t>
+  </si>
+  <si>
+    <t>Michan</t>
+  </si>
+  <si>
+    <t>albertosm32 @hotmail.com</t>
+  </si>
+  <si>
+    <t>Alberto Senado Michan</t>
+  </si>
+  <si>
+    <t>Rincón</t>
+  </si>
+  <si>
+    <t>juan@gonzalez-gonzalez.mx</t>
+  </si>
+  <si>
+    <t>Juan Alberto González Rincón</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luna </t>
+  </si>
+  <si>
+    <t>jesus.luna@gmail.com.mx</t>
+  </si>
+  <si>
+    <t>Jesus Luna</t>
+  </si>
+  <si>
+    <t>Marisol</t>
+  </si>
+  <si>
+    <t>Angélica</t>
+  </si>
+  <si>
+    <t>dra.marisolaramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>Marisol Angélica Ramírez Vázquez</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>Rodriguez</t>
+  </si>
+  <si>
+    <t>19angel76diaz@gmail.com</t>
+  </si>
+  <si>
+    <t>Angel Diaz Rodriguez</t>
+  </si>
+  <si>
+    <t>Ríos</t>
+  </si>
+  <si>
+    <t>licenciadapatriciagomez@gmail.com</t>
+  </si>
+  <si>
+    <t>Patricia Gómez Ríos</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Abrego</t>
+  </si>
+  <si>
+    <t>Teresacruza@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>María Teresa Cruz Abrego</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Alaniz</t>
+  </si>
+  <si>
+    <t>Mondragón</t>
+  </si>
+  <si>
+    <t>mauricio.alaniz@lomaya.com.mx</t>
+  </si>
+  <si>
+    <t>Mauricio Alaniz Mondragón</t>
+  </si>
+  <si>
+    <t>León</t>
+  </si>
+  <si>
+    <t>ruben.rodri@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Rubén Rodríguez León</t>
+  </si>
+  <si>
+    <t>Ximena</t>
+  </si>
+  <si>
+    <t>Cuahuey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jximenaperez@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhoana Ximena Pérez Cuahuey </t>
+  </si>
+  <si>
+    <t>teresa@cruz-abrego.com.mx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,8 +1539,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,20 +1822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -403,75 +1837,2035 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" t="s">
         <v>2</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>136</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>150</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>194</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>203</v>
+      </c>
+      <c r="E41" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D51" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" t="s">
+        <v>252</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>255</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>256</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" t="s">
+        <v>260</v>
+      </c>
+      <c r="E53" t="s">
+        <v>261</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>264</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>270</v>
+      </c>
+      <c r="E55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>274</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>275</v>
+      </c>
+      <c r="E56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" t="s">
+        <v>279</v>
+      </c>
+      <c r="D57" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" t="s">
+        <v>284</v>
+      </c>
+      <c r="E58" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>240</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" t="s">
+        <v>294</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>199</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>303</v>
+      </c>
+      <c r="D63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E63" t="s">
+        <v>305</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>309</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>288</v>
+      </c>
+      <c r="B65" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>314</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" t="s">
+        <v>323</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" t="s">
+        <v>327</v>
+      </c>
+      <c r="E68" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" t="s">
+        <v>332</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" t="s">
+        <v>336</v>
+      </c>
+      <c r="E70" t="s">
+        <v>76</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" t="s">
+        <v>343</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" t="s">
+        <v>347</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>350</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>351</v>
+      </c>
+      <c r="E74" t="s">
+        <v>352</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>355</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" t="s">
+        <v>356</v>
+      </c>
+      <c r="E75" t="s">
+        <v>204</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" t="s">
+        <v>361</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>364</v>
+      </c>
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="E77" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>368</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>369</v>
+      </c>
+      <c r="E78" t="s">
+        <v>370</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>373</v>
+      </c>
+      <c r="B79" t="s">
+        <v>374</v>
+      </c>
+      <c r="D79" t="s">
+        <v>375</v>
+      </c>
+      <c r="E79" t="s">
+        <v>376</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="D80" t="s">
+        <v>379</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E81" t="s">
+        <v>382</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>385</v>
+      </c>
+      <c r="B82" t="s">
+        <v>386</v>
+      </c>
+      <c r="D82" t="s">
+        <v>387</v>
+      </c>
+      <c r="E82" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>390</v>
+      </c>
+      <c r="B83" t="s">
+        <v>391</v>
+      </c>
+      <c r="D83" t="s">
+        <v>392</v>
+      </c>
+      <c r="E83" t="s">
+        <v>393</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" t="s">
+        <v>396</v>
+      </c>
+      <c r="D84" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" t="s">
+        <v>285</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>400</v>
+      </c>
+      <c r="D85" t="s">
+        <v>401</v>
+      </c>
+      <c r="E85" t="s">
+        <v>402</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" t="s">
+        <v>405</v>
+      </c>
+      <c r="D86" t="s">
+        <v>314</v>
+      </c>
+      <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="D87" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" t="s">
+        <v>408</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>411</v>
+      </c>
+      <c r="B88" t="s">
+        <v>412</v>
+      </c>
+      <c r="D88" t="s">
+        <v>413</v>
+      </c>
+      <c r="E88" t="s">
+        <v>414</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>417</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" t="s">
+        <v>418</v>
+      </c>
+      <c r="E89" t="s">
+        <v>419</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" t="s">
+        <v>423</v>
+      </c>
+      <c r="D90" t="s">
+        <v>424</v>
+      </c>
+      <c r="E90" t="s">
+        <v>425</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>428</v>
+      </c>
+      <c r="B91" t="s">
+        <v>314</v>
+      </c>
+      <c r="D91" t="s">
+        <v>429</v>
+      </c>
+      <c r="E91" t="s">
+        <v>430</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>433</v>
+      </c>
+      <c r="B92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>228</v>
+      </c>
+      <c r="E92" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" t="s">
+        <v>436</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>308</v>
+      </c>
+      <c r="B95" t="s">
+        <v>442</v>
+      </c>
+      <c r="D95" t="s">
+        <v>443</v>
+      </c>
+      <c r="E95" t="s">
+        <v>135</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>446</v>
+      </c>
+      <c r="D96" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>110</v>
+      </c>
+      <c r="D97" t="s">
+        <v>450</v>
+      </c>
+      <c r="E97" t="s">
+        <v>451</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D98" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" t="s">
+        <v>454</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>457</v>
+      </c>
+      <c r="B99" t="s">
+        <v>458</v>
+      </c>
+      <c r="D99" t="s">
+        <v>459</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>462</v>
+      </c>
+      <c r="B100" t="s">
+        <v>463</v>
+      </c>
+      <c r="D100" t="s">
+        <v>418</v>
+      </c>
+      <c r="E100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" t="s">
+        <v>466</v>
+      </c>
+      <c r="E101" t="s">
+        <v>467</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>66</v>
+      </c>
+      <c r="E102" t="s">
+        <v>470</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" t="s">
+        <v>473</v>
+      </c>
+      <c r="D103" t="s">
+        <v>474</v>
+      </c>
+      <c r="E103" t="s">
+        <v>475</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>478</v>
+      </c>
+      <c r="D104" t="s">
+        <v>479</v>
+      </c>
+      <c r="E104" t="s">
+        <v>480</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>341</v>
+      </c>
+      <c r="D105" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>486</v>
+      </c>
+      <c r="D106" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" t="s">
+        <v>487</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>473</v>
+      </c>
+      <c r="D107" t="s">
+        <v>474</v>
+      </c>
+      <c r="E107" t="s">
+        <v>475</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
